--- a/bankroty/excely/okresy.xlsx
+++ b/bankroty/excely/okresy.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>i</t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>poe1</t>
+  </si>
+  <si>
+    <t>b2m</t>
+  </si>
+  <si>
+    <t>b2z</t>
+  </si>
+  <si>
+    <t>b2p</t>
+  </si>
+  <si>
+    <t>b2c</t>
+  </si>
+  <si>
+    <t>b2v_p</t>
+  </si>
+  <si>
+    <t>b2v_m</t>
+  </si>
+  <si>
+    <t>b2v18_29</t>
+  </si>
+  <si>
+    <t>b2v30_39</t>
+  </si>
+  <si>
+    <t>b2v40_49</t>
+  </si>
+  <si>
+    <t>b2v50_64</t>
+  </si>
+  <si>
+    <t>b2v65_</t>
+  </si>
+  <si>
+    <t>poe2</t>
+  </si>
+  <si>
+    <t>o2</t>
   </si>
   <si>
     <t>CZ0201</t>
@@ -802,6 +841,19 @@
     <col min="56" max="1024" width="15"/>
     <col min="57" max="1024" width="15"/>
     <col min="58" max="1024" width="15"/>
+    <col min="59" max="1024" width="15"/>
+    <col min="60" max="1024" width="15"/>
+    <col min="61" max="1024" width="15"/>
+    <col min="62" max="1024" width="15"/>
+    <col min="63" max="1024" width="15"/>
+    <col min="64" max="1024" width="15"/>
+    <col min="65" max="1024" width="15"/>
+    <col min="66" max="1024" width="15"/>
+    <col min="67" max="1024" width="15"/>
+    <col min="68" max="1024" width="15"/>
+    <col min="69" max="1024" width="15"/>
+    <col min="70" max="1024" width="15"/>
+    <col min="71" max="1024" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,16 +1031,55 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>442</v>
@@ -1153,18 +1244,57 @@
         <v>82563</v>
       </c>
       <c r="BF2">
-        <v>4882</v>
+        <v>4036</v>
+      </c>
+      <c r="BG2">
+        <v>406</v>
+      </c>
+      <c r="BH2">
+        <v>365</v>
+      </c>
+      <c r="BI2">
+        <v>164</v>
+      </c>
+      <c r="BJ2">
+        <v>771</v>
+      </c>
+      <c r="BK2">
+        <v>44.45</v>
+      </c>
+      <c r="BL2">
+        <v>45</v>
+      </c>
+      <c r="BM2">
+        <v>68</v>
+      </c>
+      <c r="BN2">
+        <v>224</v>
+      </c>
+      <c r="BO2">
+        <v>200</v>
+      </c>
+      <c r="BP2">
+        <v>209</v>
+      </c>
+      <c r="BQ2">
+        <v>70</v>
+      </c>
+      <c r="BR2">
+        <v>4103</v>
+      </c>
+      <c r="BS2">
+        <v>82563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>437</v>
@@ -1329,18 +1459,57 @@
         <v>79177</v>
       </c>
       <c r="BF3">
-        <v>5343</v>
+        <v>4328</v>
+      </c>
+      <c r="BG3">
+        <v>415</v>
+      </c>
+      <c r="BH3">
+        <v>359</v>
+      </c>
+      <c r="BI3">
+        <v>179</v>
+      </c>
+      <c r="BJ3">
+        <v>774</v>
+      </c>
+      <c r="BK3">
+        <v>44.54</v>
+      </c>
+      <c r="BL3">
+        <v>45</v>
+      </c>
+      <c r="BM3">
+        <v>77</v>
+      </c>
+      <c r="BN3">
+        <v>206</v>
+      </c>
+      <c r="BO3">
+        <v>212</v>
+      </c>
+      <c r="BP3">
+        <v>217</v>
+      </c>
+      <c r="BQ3">
+        <v>62</v>
+      </c>
+      <c r="BR3">
+        <v>4181</v>
+      </c>
+      <c r="BS3">
+        <v>79177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>1040</v>
@@ -1505,18 +1674,57 @@
         <v>137021</v>
       </c>
       <c r="BF4">
-        <v>13811</v>
+        <v>11771</v>
+      </c>
+      <c r="BG4">
+        <v>974</v>
+      </c>
+      <c r="BH4">
+        <v>840</v>
+      </c>
+      <c r="BI4">
+        <v>380</v>
+      </c>
+      <c r="BJ4">
+        <v>1816</v>
+      </c>
+      <c r="BK4">
+        <v>45.2</v>
+      </c>
+      <c r="BL4">
+        <v>45</v>
+      </c>
+      <c r="BM4">
+        <v>146</v>
+      </c>
+      <c r="BN4">
+        <v>477</v>
+      </c>
+      <c r="BO4">
+        <v>515</v>
+      </c>
+      <c r="BP4">
+        <v>526</v>
+      </c>
+      <c r="BQ4">
+        <v>150</v>
+      </c>
+      <c r="BR4">
+        <v>11743</v>
+      </c>
+      <c r="BS4">
+        <v>137021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>671</v>
@@ -1681,18 +1889,57 @@
         <v>85823</v>
       </c>
       <c r="BF5">
-        <v>8394</v>
+        <v>6163</v>
+      </c>
+      <c r="BG5">
+        <v>577</v>
+      </c>
+      <c r="BH5">
+        <v>507</v>
+      </c>
+      <c r="BI5">
+        <v>261</v>
+      </c>
+      <c r="BJ5">
+        <v>1088</v>
+      </c>
+      <c r="BK5">
+        <v>44.5</v>
+      </c>
+      <c r="BL5">
+        <v>45</v>
+      </c>
+      <c r="BM5">
+        <v>77</v>
+      </c>
+      <c r="BN5">
+        <v>325</v>
+      </c>
+      <c r="BO5">
+        <v>319</v>
+      </c>
+      <c r="BP5">
+        <v>275</v>
+      </c>
+      <c r="BQ5">
+        <v>88</v>
+      </c>
+      <c r="BR5">
+        <v>6237</v>
+      </c>
+      <c r="BS5">
+        <v>85952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>422</v>
@@ -1857,18 +2104,57 @@
         <v>63755</v>
       </c>
       <c r="BF6">
-        <v>5148</v>
+        <v>4279</v>
+      </c>
+      <c r="BG6">
+        <v>475</v>
+      </c>
+      <c r="BH6">
+        <v>345</v>
+      </c>
+      <c r="BI6">
+        <v>171</v>
+      </c>
+      <c r="BJ6">
+        <v>823</v>
+      </c>
+      <c r="BK6">
+        <v>44.62</v>
+      </c>
+      <c r="BL6">
+        <v>45</v>
+      </c>
+      <c r="BM6">
+        <v>58</v>
+      </c>
+      <c r="BN6">
+        <v>215</v>
+      </c>
+      <c r="BO6">
+        <v>259</v>
+      </c>
+      <c r="BP6">
+        <v>220</v>
+      </c>
+      <c r="BQ6">
+        <v>68</v>
+      </c>
+      <c r="BR6">
+        <v>4296</v>
+      </c>
+      <c r="BS6">
+        <v>63755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>587</v>
@@ -2033,18 +2319,57 @@
         <v>90468</v>
       </c>
       <c r="BF7">
-        <v>9175</v>
+        <v>6816</v>
+      </c>
+      <c r="BG7">
+        <v>614</v>
+      </c>
+      <c r="BH7">
+        <v>472</v>
+      </c>
+      <c r="BI7">
+        <v>228</v>
+      </c>
+      <c r="BJ7">
+        <v>1086</v>
+      </c>
+      <c r="BK7">
+        <v>44.52</v>
+      </c>
+      <c r="BL7">
+        <v>44</v>
+      </c>
+      <c r="BM7">
+        <v>97</v>
+      </c>
+      <c r="BN7">
+        <v>304</v>
+      </c>
+      <c r="BO7">
+        <v>314</v>
+      </c>
+      <c r="BP7">
+        <v>284</v>
+      </c>
+      <c r="BQ7">
+        <v>87</v>
+      </c>
+      <c r="BR7">
+        <v>6657</v>
+      </c>
+      <c r="BS7">
+        <v>90468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>585</v>
@@ -2209,18 +2534,57 @@
         <v>106230</v>
       </c>
       <c r="BF8">
-        <v>8095</v>
+        <v>6715</v>
+      </c>
+      <c r="BG8">
+        <v>582</v>
+      </c>
+      <c r="BH8">
+        <v>462</v>
+      </c>
+      <c r="BI8">
+        <v>229</v>
+      </c>
+      <c r="BJ8">
+        <v>1048</v>
+      </c>
+      <c r="BK8">
+        <v>43.73</v>
+      </c>
+      <c r="BL8">
+        <v>44</v>
+      </c>
+      <c r="BM8">
+        <v>84</v>
+      </c>
+      <c r="BN8">
+        <v>316</v>
+      </c>
+      <c r="BO8">
+        <v>286</v>
+      </c>
+      <c r="BP8">
+        <v>280</v>
+      </c>
+      <c r="BQ8">
+        <v>78</v>
+      </c>
+      <c r="BR8">
+        <v>7035</v>
+      </c>
+      <c r="BS8">
+        <v>106230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>513</v>
@@ -2385,18 +2749,57 @@
         <v>83398</v>
       </c>
       <c r="BF9">
-        <v>6446</v>
+        <v>5071</v>
+      </c>
+      <c r="BG9">
+        <v>484</v>
+      </c>
+      <c r="BH9">
+        <v>437</v>
+      </c>
+      <c r="BI9">
+        <v>233</v>
+      </c>
+      <c r="BJ9">
+        <v>923</v>
+      </c>
+      <c r="BK9">
+        <v>44.5</v>
+      </c>
+      <c r="BL9">
+        <v>44</v>
+      </c>
+      <c r="BM9">
+        <v>75</v>
+      </c>
+      <c r="BN9">
+        <v>254</v>
+      </c>
+      <c r="BO9">
+        <v>288</v>
+      </c>
+      <c r="BP9">
+        <v>239</v>
+      </c>
+      <c r="BQ9">
+        <v>65</v>
+      </c>
+      <c r="BR9">
+        <v>4753</v>
+      </c>
+      <c r="BS9">
+        <v>83269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>475</v>
@@ -2561,18 +2964,57 @@
         <v>148212</v>
       </c>
       <c r="BF10">
-        <v>7374</v>
+        <v>6127</v>
+      </c>
+      <c r="BG10">
+        <v>598</v>
+      </c>
+      <c r="BH10">
+        <v>508</v>
+      </c>
+      <c r="BI10">
+        <v>259</v>
+      </c>
+      <c r="BJ10">
+        <v>1107</v>
+      </c>
+      <c r="BK10">
+        <v>44.39</v>
+      </c>
+      <c r="BL10">
+        <v>45</v>
+      </c>
+      <c r="BM10">
+        <v>77</v>
+      </c>
+      <c r="BN10">
+        <v>302</v>
+      </c>
+      <c r="BO10">
+        <v>337</v>
+      </c>
+      <c r="BP10">
+        <v>303</v>
+      </c>
+      <c r="BQ10">
+        <v>87</v>
+      </c>
+      <c r="BR10">
+        <v>6291</v>
+      </c>
+      <c r="BS10">
+        <v>148212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>338</v>
@@ -2737,18 +3179,57 @@
         <v>119423</v>
       </c>
       <c r="BF11">
-        <v>5832</v>
+        <v>4876</v>
+      </c>
+      <c r="BG11">
+        <v>430</v>
+      </c>
+      <c r="BH11">
+        <v>353</v>
+      </c>
+      <c r="BI11">
+        <v>172</v>
+      </c>
+      <c r="BJ11">
+        <v>784</v>
+      </c>
+      <c r="BK11">
+        <v>44.67</v>
+      </c>
+      <c r="BL11">
+        <v>45</v>
+      </c>
+      <c r="BM11">
+        <v>37</v>
+      </c>
+      <c r="BN11">
+        <v>218</v>
+      </c>
+      <c r="BO11">
+        <v>243</v>
+      </c>
+      <c r="BP11">
+        <v>218</v>
+      </c>
+      <c r="BQ11">
+        <v>67</v>
+      </c>
+      <c r="BR11">
+        <v>5073</v>
+      </c>
+      <c r="BS11">
+        <v>119423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>554</v>
@@ -2913,18 +3394,57 @@
         <v>96131</v>
       </c>
       <c r="BF12">
-        <v>7252</v>
+        <v>6281</v>
+      </c>
+      <c r="BG12">
+        <v>574</v>
+      </c>
+      <c r="BH12">
+        <v>535</v>
+      </c>
+      <c r="BI12">
+        <v>288</v>
+      </c>
+      <c r="BJ12">
+        <v>1111</v>
+      </c>
+      <c r="BK12">
+        <v>45.42</v>
+      </c>
+      <c r="BL12">
+        <v>45</v>
+      </c>
+      <c r="BM12">
+        <v>77</v>
+      </c>
+      <c r="BN12">
+        <v>290</v>
+      </c>
+      <c r="BO12">
+        <v>317</v>
+      </c>
+      <c r="BP12">
+        <v>308</v>
+      </c>
+      <c r="BQ12">
+        <v>117</v>
+      </c>
+      <c r="BR12">
+        <v>5299</v>
+      </c>
+      <c r="BS12">
+        <v>96131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>337</v>
@@ -3089,18 +3609,57 @@
         <v>46102</v>
       </c>
       <c r="BF13">
-        <v>4338</v>
+        <v>3420</v>
+      </c>
+      <c r="BG13">
+        <v>350</v>
+      </c>
+      <c r="BH13">
+        <v>321</v>
+      </c>
+      <c r="BI13">
+        <v>180</v>
+      </c>
+      <c r="BJ13">
+        <v>671</v>
+      </c>
+      <c r="BK13">
+        <v>45.21</v>
+      </c>
+      <c r="BL13">
+        <v>44</v>
+      </c>
+      <c r="BM13">
+        <v>59</v>
+      </c>
+      <c r="BN13">
+        <v>192</v>
+      </c>
+      <c r="BO13">
+        <v>200</v>
+      </c>
+      <c r="BP13">
+        <v>167</v>
+      </c>
+      <c r="BQ13">
+        <v>53</v>
+      </c>
+      <c r="BR13">
+        <v>3261</v>
+      </c>
+      <c r="BS13">
+        <v>46102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>892</v>
@@ -3265,18 +3824,57 @@
         <v>162714</v>
       </c>
       <c r="BF14">
-        <v>11981</v>
+        <v>9726</v>
+      </c>
+      <c r="BG14">
+        <v>816</v>
+      </c>
+      <c r="BH14">
+        <v>737</v>
+      </c>
+      <c r="BI14">
+        <v>294</v>
+      </c>
+      <c r="BJ14">
+        <v>1556</v>
+      </c>
+      <c r="BK14">
+        <v>44.18</v>
+      </c>
+      <c r="BL14">
+        <v>45</v>
+      </c>
+      <c r="BM14">
+        <v>129</v>
+      </c>
+      <c r="BN14">
+        <v>409</v>
+      </c>
+      <c r="BO14">
+        <v>430</v>
+      </c>
+      <c r="BP14">
+        <v>460</v>
+      </c>
+      <c r="BQ14">
+        <v>125</v>
+      </c>
+      <c r="BR14">
+        <v>9700</v>
+      </c>
+      <c r="BS14">
+        <v>162714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>417</v>
@@ -3441,18 +4039,57 @@
         <v>50279</v>
       </c>
       <c r="BF15">
-        <v>5759</v>
+        <v>4793</v>
+      </c>
+      <c r="BG15">
+        <v>398</v>
+      </c>
+      <c r="BH15">
+        <v>293</v>
+      </c>
+      <c r="BI15">
+        <v>144</v>
+      </c>
+      <c r="BJ15">
+        <v>692</v>
+      </c>
+      <c r="BK15">
+        <v>45.14</v>
+      </c>
+      <c r="BL15">
+        <v>45</v>
+      </c>
+      <c r="BM15">
+        <v>61</v>
+      </c>
+      <c r="BN15">
+        <v>202</v>
+      </c>
+      <c r="BO15">
+        <v>189</v>
+      </c>
+      <c r="BP15">
+        <v>181</v>
+      </c>
+      <c r="BQ15">
+        <v>58</v>
+      </c>
+      <c r="BR15">
+        <v>5081</v>
+      </c>
+      <c r="BS15">
+        <v>50279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>692</v>
@@ -3617,18 +4254,57 @@
         <v>75824</v>
       </c>
       <c r="BF16">
-        <v>5578</v>
+        <v>4873</v>
+      </c>
+      <c r="BG16">
+        <v>506</v>
+      </c>
+      <c r="BH16">
+        <v>391</v>
+      </c>
+      <c r="BI16">
+        <v>177</v>
+      </c>
+      <c r="BJ16">
+        <v>898</v>
+      </c>
+      <c r="BK16">
+        <v>45.74</v>
+      </c>
+      <c r="BL16">
+        <v>44</v>
+      </c>
+      <c r="BM16">
+        <v>90</v>
+      </c>
+      <c r="BN16">
+        <v>251</v>
+      </c>
+      <c r="BO16">
+        <v>255</v>
+      </c>
+      <c r="BP16">
+        <v>237</v>
+      </c>
+      <c r="BQ16">
+        <v>64</v>
+      </c>
+      <c r="BR16">
+        <v>4727</v>
+      </c>
+      <c r="BS16">
+        <v>75824</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D17">
         <v>438</v>
@@ -3793,18 +4469,57 @@
         <v>59922</v>
       </c>
       <c r="BF17">
-        <v>4544</v>
+        <v>3896</v>
+      </c>
+      <c r="BG17">
+        <v>437</v>
+      </c>
+      <c r="BH17">
+        <v>360</v>
+      </c>
+      <c r="BI17">
+        <v>173</v>
+      </c>
+      <c r="BJ17">
+        <v>798</v>
+      </c>
+      <c r="BK17">
+        <v>45.06</v>
+      </c>
+      <c r="BL17">
+        <v>45</v>
+      </c>
+      <c r="BM17">
+        <v>69</v>
+      </c>
+      <c r="BN17">
+        <v>207</v>
+      </c>
+      <c r="BO17">
+        <v>243</v>
+      </c>
+      <c r="BP17">
+        <v>220</v>
+      </c>
+      <c r="BQ17">
+        <v>58</v>
+      </c>
+      <c r="BR17">
+        <v>3473</v>
+      </c>
+      <c r="BS17">
+        <v>59922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>380</v>
@@ -3969,18 +4684,57 @@
         <v>42360</v>
       </c>
       <c r="BF18">
-        <v>4149</v>
+        <v>3291</v>
+      </c>
+      <c r="BG18">
+        <v>288</v>
+      </c>
+      <c r="BH18">
+        <v>260</v>
+      </c>
+      <c r="BI18">
+        <v>112</v>
+      </c>
+      <c r="BJ18">
+        <v>550</v>
+      </c>
+      <c r="BK18">
+        <v>44.01</v>
+      </c>
+      <c r="BL18">
+        <v>45</v>
+      </c>
+      <c r="BM18">
+        <v>52</v>
+      </c>
+      <c r="BN18">
+        <v>143</v>
+      </c>
+      <c r="BO18">
+        <v>168</v>
+      </c>
+      <c r="BP18">
+        <v>148</v>
+      </c>
+      <c r="BQ18">
+        <v>37</v>
+      </c>
+      <c r="BR18">
+        <v>3218</v>
+      </c>
+      <c r="BS18">
+        <v>42360</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>448</v>
@@ -4145,18 +4899,57 @@
         <v>58830</v>
       </c>
       <c r="BF19">
-        <v>4382</v>
+        <v>3515</v>
+      </c>
+      <c r="BG19">
+        <v>381</v>
+      </c>
+      <c r="BH19">
+        <v>337</v>
+      </c>
+      <c r="BI19">
+        <v>127</v>
+      </c>
+      <c r="BJ19">
+        <v>718</v>
+      </c>
+      <c r="BK19">
+        <v>44.36</v>
+      </c>
+      <c r="BL19">
+        <v>43</v>
+      </c>
+      <c r="BM19">
+        <v>74</v>
+      </c>
+      <c r="BN19">
+        <v>203</v>
+      </c>
+      <c r="BO19">
+        <v>199</v>
+      </c>
+      <c r="BP19">
+        <v>191</v>
+      </c>
+      <c r="BQ19">
+        <v>51</v>
+      </c>
+      <c r="BR19">
+        <v>3740</v>
+      </c>
+      <c r="BS19">
+        <v>58830</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>668</v>
@@ -4321,18 +5114,57 @@
         <v>85549</v>
       </c>
       <c r="BF20">
-        <v>6002</v>
+        <v>5244</v>
+      </c>
+      <c r="BG20">
+        <v>472</v>
+      </c>
+      <c r="BH20">
+        <v>425</v>
+      </c>
+      <c r="BI20">
+        <v>182</v>
+      </c>
+      <c r="BJ20">
+        <v>900</v>
+      </c>
+      <c r="BK20">
+        <v>44.9</v>
+      </c>
+      <c r="BL20">
+        <v>45</v>
+      </c>
+      <c r="BM20">
+        <v>74</v>
+      </c>
+      <c r="BN20">
+        <v>228</v>
+      </c>
+      <c r="BO20">
+        <v>256</v>
+      </c>
+      <c r="BP20">
+        <v>261</v>
+      </c>
+      <c r="BQ20">
+        <v>78</v>
+      </c>
+      <c r="BR20">
+        <v>5240</v>
+      </c>
+      <c r="BS20">
+        <v>85549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>321</v>
@@ -4497,18 +5329,57 @@
         <v>51130</v>
       </c>
       <c r="BF21">
-        <v>4696</v>
+        <v>3587</v>
+      </c>
+      <c r="BG21">
+        <v>339</v>
+      </c>
+      <c r="BH21">
+        <v>290</v>
+      </c>
+      <c r="BI21">
+        <v>167</v>
+      </c>
+      <c r="BJ21">
+        <v>630</v>
+      </c>
+      <c r="BK21">
+        <v>44.47</v>
+      </c>
+      <c r="BL21">
+        <v>44</v>
+      </c>
+      <c r="BM21">
+        <v>71</v>
+      </c>
+      <c r="BN21">
+        <v>180</v>
+      </c>
+      <c r="BO21">
+        <v>170</v>
+      </c>
+      <c r="BP21">
+        <v>169</v>
+      </c>
+      <c r="BQ21">
+        <v>39</v>
+      </c>
+      <c r="BR21">
+        <v>3171</v>
+      </c>
+      <c r="BS21">
+        <v>45749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D22">
         <v>466</v>
@@ -4673,18 +5544,57 @@
         <v>72147</v>
       </c>
       <c r="BF22">
-        <v>5247</v>
+        <v>3805</v>
+      </c>
+      <c r="BG22">
+        <v>407</v>
+      </c>
+      <c r="BH22">
+        <v>343</v>
+      </c>
+      <c r="BI22">
+        <v>184</v>
+      </c>
+      <c r="BJ22">
+        <v>751</v>
+      </c>
+      <c r="BK22">
+        <v>44.92</v>
+      </c>
+      <c r="BL22">
+        <v>45</v>
+      </c>
+      <c r="BM22">
+        <v>77</v>
+      </c>
+      <c r="BN22">
+        <v>201</v>
+      </c>
+      <c r="BO22">
+        <v>193</v>
+      </c>
+      <c r="BP22">
+        <v>208</v>
+      </c>
+      <c r="BQ22">
+        <v>71</v>
+      </c>
+      <c r="BR22">
+        <v>3724</v>
+      </c>
+      <c r="BS22">
+        <v>72147</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>801</v>
@@ -4849,18 +5759,57 @@
         <v>159071</v>
       </c>
       <c r="BF23">
-        <v>17498</v>
+        <v>15240</v>
+      </c>
+      <c r="BG23">
+        <v>1017</v>
+      </c>
+      <c r="BH23">
+        <v>795</v>
+      </c>
+      <c r="BI23">
+        <v>369</v>
+      </c>
+      <c r="BJ23">
+        <v>1819</v>
+      </c>
+      <c r="BK23">
+        <v>44.14</v>
+      </c>
+      <c r="BL23">
+        <v>45</v>
+      </c>
+      <c r="BM23">
+        <v>97</v>
+      </c>
+      <c r="BN23">
+        <v>507</v>
+      </c>
+      <c r="BO23">
+        <v>554</v>
+      </c>
+      <c r="BP23">
+        <v>512</v>
+      </c>
+      <c r="BQ23">
+        <v>142</v>
+      </c>
+      <c r="BR23">
+        <v>14751</v>
+      </c>
+      <c r="BS23">
+        <v>159071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <v>339</v>
@@ -5025,18 +5974,57 @@
         <v>52498</v>
       </c>
       <c r="BF24">
-        <v>3721</v>
+        <v>2956</v>
+      </c>
+      <c r="BG24">
+        <v>294</v>
+      </c>
+      <c r="BH24">
+        <v>245</v>
+      </c>
+      <c r="BI24">
+        <v>112</v>
+      </c>
+      <c r="BJ24">
+        <v>539</v>
+      </c>
+      <c r="BK24">
+        <v>44.12</v>
+      </c>
+      <c r="BL24">
+        <v>44</v>
+      </c>
+      <c r="BM24">
+        <v>56</v>
+      </c>
+      <c r="BN24">
+        <v>144</v>
+      </c>
+      <c r="BO24">
+        <v>149</v>
+      </c>
+      <c r="BP24">
+        <v>155</v>
+      </c>
+      <c r="BQ24">
+        <v>35</v>
+      </c>
+      <c r="BR24">
+        <v>3224</v>
+      </c>
+      <c r="BS24">
+        <v>57879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>443</v>
@@ -5201,18 +6189,57 @@
         <v>67444</v>
       </c>
       <c r="BF25">
-        <v>5092</v>
+        <v>4150</v>
+      </c>
+      <c r="BG25">
+        <v>426</v>
+      </c>
+      <c r="BH25">
+        <v>336</v>
+      </c>
+      <c r="BI25">
+        <v>210</v>
+      </c>
+      <c r="BJ25">
+        <v>763</v>
+      </c>
+      <c r="BK25">
+        <v>44.49</v>
+      </c>
+      <c r="BL25">
+        <v>44</v>
+      </c>
+      <c r="BM25">
+        <v>64</v>
+      </c>
+      <c r="BN25">
+        <v>221</v>
+      </c>
+      <c r="BO25">
+        <v>232</v>
+      </c>
+      <c r="BP25">
+        <v>177</v>
+      </c>
+      <c r="BQ25">
+        <v>68</v>
+      </c>
+      <c r="BR25">
+        <v>3962</v>
+      </c>
+      <c r="BS25">
+        <v>67444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>341</v>
@@ -5377,18 +6404,57 @@
         <v>41075</v>
       </c>
       <c r="BF26">
-        <v>3267</v>
+        <v>2850</v>
+      </c>
+      <c r="BG26">
+        <v>334</v>
+      </c>
+      <c r="BH26">
+        <v>305</v>
+      </c>
+      <c r="BI26">
+        <v>166</v>
+      </c>
+      <c r="BJ26">
+        <v>640</v>
+      </c>
+      <c r="BK26">
+        <v>43.63</v>
+      </c>
+      <c r="BL26">
+        <v>44</v>
+      </c>
+      <c r="BM26">
+        <v>74</v>
+      </c>
+      <c r="BN26">
+        <v>174</v>
+      </c>
+      <c r="BO26">
+        <v>162</v>
+      </c>
+      <c r="BP26">
+        <v>174</v>
+      </c>
+      <c r="BQ26">
+        <v>55</v>
+      </c>
+      <c r="BR26">
+        <v>2688</v>
+      </c>
+      <c r="BS26">
+        <v>41075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D27">
         <v>491</v>
@@ -5553,18 +6619,57 @@
         <v>44629</v>
       </c>
       <c r="BF27">
-        <v>5425</v>
+        <v>4511</v>
+      </c>
+      <c r="BG27">
+        <v>449</v>
+      </c>
+      <c r="BH27">
+        <v>423</v>
+      </c>
+      <c r="BI27">
+        <v>203</v>
+      </c>
+      <c r="BJ27">
+        <v>872</v>
+      </c>
+      <c r="BK27">
+        <v>43.79</v>
+      </c>
+      <c r="BL27">
+        <v>44</v>
+      </c>
+      <c r="BM27">
+        <v>77</v>
+      </c>
+      <c r="BN27">
+        <v>258</v>
+      </c>
+      <c r="BO27">
+        <v>222</v>
+      </c>
+      <c r="BP27">
+        <v>239</v>
+      </c>
+      <c r="BQ27">
+        <v>76</v>
+      </c>
+      <c r="BR27">
+        <v>4555</v>
+      </c>
+      <c r="BS27">
+        <v>44629</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D28">
         <v>847</v>
@@ -5729,18 +6834,57 @@
         <v>74699</v>
       </c>
       <c r="BF28">
-        <v>12474</v>
+        <v>10068</v>
+      </c>
+      <c r="BG28">
+        <v>738</v>
+      </c>
+      <c r="BH28">
+        <v>672</v>
+      </c>
+      <c r="BI28">
+        <v>404</v>
+      </c>
+      <c r="BJ28">
+        <v>1410</v>
+      </c>
+      <c r="BK28">
+        <v>45.46</v>
+      </c>
+      <c r="BL28">
+        <v>45</v>
+      </c>
+      <c r="BM28">
+        <v>130</v>
+      </c>
+      <c r="BN28">
+        <v>365</v>
+      </c>
+      <c r="BO28">
+        <v>403</v>
+      </c>
+      <c r="BP28">
+        <v>372</v>
+      </c>
+      <c r="BQ28">
+        <v>140</v>
+      </c>
+      <c r="BR28">
+        <v>10451</v>
+      </c>
+      <c r="BS28">
+        <v>74699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>858</v>
@@ -5905,18 +7049,57 @@
         <v>94010</v>
       </c>
       <c r="BF29">
-        <v>14412</v>
+        <v>10547</v>
+      </c>
+      <c r="BG29">
+        <v>861</v>
+      </c>
+      <c r="BH29">
+        <v>715</v>
+      </c>
+      <c r="BI29">
+        <v>329</v>
+      </c>
+      <c r="BJ29">
+        <v>1576</v>
+      </c>
+      <c r="BK29">
+        <v>44.99</v>
+      </c>
+      <c r="BL29">
+        <v>46</v>
+      </c>
+      <c r="BM29">
+        <v>109</v>
+      </c>
+      <c r="BN29">
+        <v>391</v>
+      </c>
+      <c r="BO29">
+        <v>434</v>
+      </c>
+      <c r="BP29">
+        <v>515</v>
+      </c>
+      <c r="BQ29">
+        <v>127</v>
+      </c>
+      <c r="BR29">
+        <v>10207</v>
+      </c>
+      <c r="BS29">
+        <v>94010</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D30">
         <v>853</v>
@@ -6081,18 +7264,57 @@
         <v>72047</v>
       </c>
       <c r="BF30">
-        <v>14417</v>
+        <v>10786</v>
+      </c>
+      <c r="BG30">
+        <v>763</v>
+      </c>
+      <c r="BH30">
+        <v>671</v>
+      </c>
+      <c r="BI30">
+        <v>359</v>
+      </c>
+      <c r="BJ30">
+        <v>1436</v>
+      </c>
+      <c r="BK30">
+        <v>45.47</v>
+      </c>
+      <c r="BL30">
+        <v>45</v>
+      </c>
+      <c r="BM30">
+        <v>113</v>
+      </c>
+      <c r="BN30">
+        <v>402</v>
+      </c>
+      <c r="BO30">
+        <v>380</v>
+      </c>
+      <c r="BP30">
+        <v>417</v>
+      </c>
+      <c r="BQ30">
+        <v>122</v>
+      </c>
+      <c r="BR30">
+        <v>10785</v>
+      </c>
+      <c r="BS30">
+        <v>72047</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D31">
         <v>1118</v>
@@ -6257,18 +7479,57 @@
         <v>106225</v>
       </c>
       <c r="BF31">
-        <v>17575</v>
+        <v>14070</v>
+      </c>
+      <c r="BG31">
+        <v>1111</v>
+      </c>
+      <c r="BH31">
+        <v>940</v>
+      </c>
+      <c r="BI31">
+        <v>522</v>
+      </c>
+      <c r="BJ31">
+        <v>2052</v>
+      </c>
+      <c r="BK31">
+        <v>45.13</v>
+      </c>
+      <c r="BL31">
+        <v>45</v>
+      </c>
+      <c r="BM31">
+        <v>190</v>
+      </c>
+      <c r="BN31">
+        <v>539</v>
+      </c>
+      <c r="BO31">
+        <v>582</v>
+      </c>
+      <c r="BP31">
+        <v>553</v>
+      </c>
+      <c r="BQ31">
+        <v>187</v>
+      </c>
+      <c r="BR31">
+        <v>14919</v>
+      </c>
+      <c r="BS31">
+        <v>106225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D32">
         <v>1355</v>
@@ -6433,18 +7694,57 @@
         <v>102450</v>
       </c>
       <c r="BF32">
-        <v>20300</v>
+        <v>15750</v>
+      </c>
+      <c r="BG32">
+        <v>1292</v>
+      </c>
+      <c r="BH32">
+        <v>1141</v>
+      </c>
+      <c r="BI32">
+        <v>618</v>
+      </c>
+      <c r="BJ32">
+        <v>2434</v>
+      </c>
+      <c r="BK32">
+        <v>45.18</v>
+      </c>
+      <c r="BL32">
+        <v>45</v>
+      </c>
+      <c r="BM32">
+        <v>214</v>
+      </c>
+      <c r="BN32">
+        <v>628</v>
+      </c>
+      <c r="BO32">
+        <v>723</v>
+      </c>
+      <c r="BP32">
+        <v>672</v>
+      </c>
+      <c r="BQ32">
+        <v>196</v>
+      </c>
+      <c r="BR32">
+        <v>15704</v>
+      </c>
+      <c r="BS32">
+        <v>102450</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>948</v>
@@ -6609,18 +7909,57 @@
         <v>98407</v>
       </c>
       <c r="BF33">
-        <v>11135</v>
+        <v>8397</v>
+      </c>
+      <c r="BG33">
+        <v>867</v>
+      </c>
+      <c r="BH33">
+        <v>694</v>
+      </c>
+      <c r="BI33">
+        <v>394</v>
+      </c>
+      <c r="BJ33">
+        <v>1564</v>
+      </c>
+      <c r="BK33">
+        <v>44.9</v>
+      </c>
+      <c r="BL33">
+        <v>45</v>
+      </c>
+      <c r="BM33">
+        <v>123</v>
+      </c>
+      <c r="BN33">
+        <v>400</v>
+      </c>
+      <c r="BO33">
+        <v>494</v>
+      </c>
+      <c r="BP33">
+        <v>410</v>
+      </c>
+      <c r="BQ33">
+        <v>134</v>
+      </c>
+      <c r="BR33">
+        <v>8239</v>
+      </c>
+      <c r="BS33">
+        <v>98407</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D34">
         <v>936</v>
@@ -6785,18 +8124,57 @@
         <v>71656</v>
       </c>
       <c r="BF34">
-        <v>10547</v>
+        <v>8315</v>
+      </c>
+      <c r="BG34">
+        <v>772</v>
+      </c>
+      <c r="BH34">
+        <v>664</v>
+      </c>
+      <c r="BI34">
+        <v>424</v>
+      </c>
+      <c r="BJ34">
+        <v>1436</v>
+      </c>
+      <c r="BK34">
+        <v>44.93</v>
+      </c>
+      <c r="BL34">
+        <v>44</v>
+      </c>
+      <c r="BM34">
+        <v>117</v>
+      </c>
+      <c r="BN34">
+        <v>391</v>
+      </c>
+      <c r="BO34">
+        <v>442</v>
+      </c>
+      <c r="BP34">
+        <v>383</v>
+      </c>
+      <c r="BQ34">
+        <v>103</v>
+      </c>
+      <c r="BR34">
+        <v>8176</v>
+      </c>
+      <c r="BS34">
+        <v>71656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D35">
         <v>1168</v>
@@ -6961,18 +8339,57 @@
         <v>90086</v>
       </c>
       <c r="BF35">
-        <v>19042</v>
+        <v>16175</v>
+      </c>
+      <c r="BG35">
+        <v>1185</v>
+      </c>
+      <c r="BH35">
+        <v>1018</v>
+      </c>
+      <c r="BI35">
+        <v>475</v>
+      </c>
+      <c r="BJ35">
+        <v>2204</v>
+      </c>
+      <c r="BK35">
+        <v>45.32</v>
+      </c>
+      <c r="BL35">
+        <v>46</v>
+      </c>
+      <c r="BM35">
+        <v>161</v>
+      </c>
+      <c r="BN35">
+        <v>542</v>
+      </c>
+      <c r="BO35">
+        <v>663</v>
+      </c>
+      <c r="BP35">
+        <v>657</v>
+      </c>
+      <c r="BQ35">
+        <v>180</v>
+      </c>
+      <c r="BR35">
+        <v>16247</v>
+      </c>
+      <c r="BS35">
+        <v>90086</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D36">
         <v>1388</v>
@@ -7137,18 +8554,57 @@
         <v>104907</v>
       </c>
       <c r="BF36">
-        <v>18779</v>
+        <v>15701</v>
+      </c>
+      <c r="BG36">
+        <v>1251</v>
+      </c>
+      <c r="BH36">
+        <v>1017</v>
+      </c>
+      <c r="BI36">
+        <v>538</v>
+      </c>
+      <c r="BJ36">
+        <v>2268</v>
+      </c>
+      <c r="BK36">
+        <v>45.26</v>
+      </c>
+      <c r="BL36">
+        <v>45</v>
+      </c>
+      <c r="BM36">
+        <v>202</v>
+      </c>
+      <c r="BN36">
+        <v>612</v>
+      </c>
+      <c r="BO36">
+        <v>614</v>
+      </c>
+      <c r="BP36">
+        <v>644</v>
+      </c>
+      <c r="BQ36">
+        <v>196</v>
+      </c>
+      <c r="BR36">
+        <v>15492</v>
+      </c>
+      <c r="BS36">
+        <v>104907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D37">
         <v>990</v>
@@ -7313,18 +8769,57 @@
         <v>98014</v>
       </c>
       <c r="BF37">
-        <v>18392</v>
+        <v>15992</v>
+      </c>
+      <c r="BG37">
+        <v>1076</v>
+      </c>
+      <c r="BH37">
+        <v>926</v>
+      </c>
+      <c r="BI37">
+        <v>486</v>
+      </c>
+      <c r="BJ37">
+        <v>2004</v>
+      </c>
+      <c r="BK37">
+        <v>45.73</v>
+      </c>
+      <c r="BL37">
+        <v>46</v>
+      </c>
+      <c r="BM37">
+        <v>145</v>
+      </c>
+      <c r="BN37">
+        <v>506</v>
+      </c>
+      <c r="BO37">
+        <v>594</v>
+      </c>
+      <c r="BP37">
+        <v>598</v>
+      </c>
+      <c r="BQ37">
+        <v>159</v>
+      </c>
+      <c r="BR37">
+        <v>15614</v>
+      </c>
+      <c r="BS37">
+        <v>98014</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D38">
         <v>926</v>
@@ -7489,18 +8984,57 @@
         <v>85564</v>
       </c>
       <c r="BF38">
-        <v>11418</v>
+        <v>9885</v>
+      </c>
+      <c r="BG38">
+        <v>951</v>
+      </c>
+      <c r="BH38">
+        <v>829</v>
+      </c>
+      <c r="BI38">
+        <v>449</v>
+      </c>
+      <c r="BJ38">
+        <v>1786</v>
+      </c>
+      <c r="BK38">
+        <v>44.36</v>
+      </c>
+      <c r="BL38">
+        <v>45</v>
+      </c>
+      <c r="BM38">
+        <v>152</v>
+      </c>
+      <c r="BN38">
+        <v>464</v>
+      </c>
+      <c r="BO38">
+        <v>507</v>
+      </c>
+      <c r="BP38">
+        <v>484</v>
+      </c>
+      <c r="BQ38">
+        <v>173</v>
+      </c>
+      <c r="BR38">
+        <v>9868</v>
+      </c>
+      <c r="BS38">
+        <v>85564</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D39">
         <v>545</v>
@@ -7665,18 +9199,57 @@
         <v>74358</v>
       </c>
       <c r="BF39">
-        <v>8274</v>
+        <v>7100</v>
+      </c>
+      <c r="BG39">
+        <v>629</v>
+      </c>
+      <c r="BH39">
+        <v>566</v>
+      </c>
+      <c r="BI39">
+        <v>269</v>
+      </c>
+      <c r="BJ39">
+        <v>1198</v>
+      </c>
+      <c r="BK39">
+        <v>45.13</v>
+      </c>
+      <c r="BL39">
+        <v>45</v>
+      </c>
+      <c r="BM39">
+        <v>109</v>
+      </c>
+      <c r="BN39">
+        <v>309</v>
+      </c>
+      <c r="BO39">
+        <v>333</v>
+      </c>
+      <c r="BP39">
+        <v>338</v>
+      </c>
+      <c r="BQ39">
+        <v>106</v>
+      </c>
+      <c r="BR39">
+        <v>7012</v>
+      </c>
+      <c r="BS39">
+        <v>75496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D40">
         <v>1213</v>
@@ -7841,18 +9414,57 @@
         <v>144999</v>
       </c>
       <c r="BF40">
-        <v>15724</v>
+        <v>13995</v>
+      </c>
+      <c r="BG40">
+        <v>1234</v>
+      </c>
+      <c r="BH40">
+        <v>1074</v>
+      </c>
+      <c r="BI40">
+        <v>511</v>
+      </c>
+      <c r="BJ40">
+        <v>2313</v>
+      </c>
+      <c r="BK40">
+        <v>44.31</v>
+      </c>
+      <c r="BL40">
+        <v>46</v>
+      </c>
+      <c r="BM40">
+        <v>179</v>
+      </c>
+      <c r="BN40">
+        <v>581</v>
+      </c>
+      <c r="BO40">
+        <v>687</v>
+      </c>
+      <c r="BP40">
+        <v>681</v>
+      </c>
+      <c r="BQ40">
+        <v>180</v>
+      </c>
+      <c r="BR40">
+        <v>13990</v>
+      </c>
+      <c r="BS40">
+        <v>144999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D41">
         <v>355</v>
@@ -8017,18 +9629,57 @@
         <v>61443</v>
       </c>
       <c r="BF41">
-        <v>3781</v>
+        <v>3165</v>
+      </c>
+      <c r="BG41">
+        <v>377</v>
+      </c>
+      <c r="BH41">
+        <v>290</v>
+      </c>
+      <c r="BI41">
+        <v>178</v>
+      </c>
+      <c r="BJ41">
+        <v>667</v>
+      </c>
+      <c r="BK41">
+        <v>44.99</v>
+      </c>
+      <c r="BL41">
+        <v>45</v>
+      </c>
+      <c r="BM41">
+        <v>55</v>
+      </c>
+      <c r="BN41">
+        <v>179</v>
+      </c>
+      <c r="BO41">
+        <v>188</v>
+      </c>
+      <c r="BP41">
+        <v>198</v>
+      </c>
+      <c r="BQ41">
+        <v>47</v>
+      </c>
+      <c r="BR41">
+        <v>3037</v>
+      </c>
+      <c r="BS41">
+        <v>60305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D42">
         <v>837</v>
@@ -8193,18 +9844,57 @@
         <v>136522</v>
       </c>
       <c r="BF42">
-        <v>9102</v>
+        <v>7569</v>
+      </c>
+      <c r="BG42">
+        <v>805</v>
+      </c>
+      <c r="BH42">
+        <v>657</v>
+      </c>
+      <c r="BI42">
+        <v>293</v>
+      </c>
+      <c r="BJ42">
+        <v>1464</v>
+      </c>
+      <c r="BK42">
+        <v>45.2</v>
+      </c>
+      <c r="BL42">
+        <v>45</v>
+      </c>
+      <c r="BM42">
+        <v>124</v>
+      </c>
+      <c r="BN42">
+        <v>391</v>
+      </c>
+      <c r="BO42">
+        <v>404</v>
+      </c>
+      <c r="BP42">
+        <v>399</v>
+      </c>
+      <c r="BQ42">
+        <v>144</v>
+      </c>
+      <c r="BR42">
+        <v>7531</v>
+      </c>
+      <c r="BS42">
+        <v>136522</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D43">
         <v>567</v>
@@ -8369,18 +10059,57 @@
         <v>66252</v>
       </c>
       <c r="BF43">
-        <v>4649</v>
+        <v>3808</v>
+      </c>
+      <c r="BG43">
+        <v>474</v>
+      </c>
+      <c r="BH43">
+        <v>361</v>
+      </c>
+      <c r="BI43">
+        <v>196</v>
+      </c>
+      <c r="BJ43">
+        <v>835</v>
+      </c>
+      <c r="BK43">
+        <v>44.67</v>
+      </c>
+      <c r="BL43">
+        <v>43</v>
+      </c>
+      <c r="BM43">
+        <v>81</v>
+      </c>
+      <c r="BN43">
+        <v>252</v>
+      </c>
+      <c r="BO43">
+        <v>242</v>
+      </c>
+      <c r="BP43">
+        <v>196</v>
+      </c>
+      <c r="BQ43">
+        <v>64</v>
+      </c>
+      <c r="BR43">
+        <v>3664</v>
+      </c>
+      <c r="BS43">
+        <v>66252</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D44">
         <v>744</v>
@@ -8545,18 +10274,57 @@
         <v>91313</v>
       </c>
       <c r="BF44">
-        <v>7751</v>
+        <v>6132</v>
+      </c>
+      <c r="BG44">
+        <v>651</v>
+      </c>
+      <c r="BH44">
+        <v>504</v>
+      </c>
+      <c r="BI44">
+        <v>254</v>
+      </c>
+      <c r="BJ44">
+        <v>1155</v>
+      </c>
+      <c r="BK44">
+        <v>44.43</v>
+      </c>
+      <c r="BL44">
+        <v>45</v>
+      </c>
+      <c r="BM44">
+        <v>97</v>
+      </c>
+      <c r="BN44">
+        <v>309</v>
+      </c>
+      <c r="BO44">
+        <v>327</v>
+      </c>
+      <c r="BP44">
+        <v>324</v>
+      </c>
+      <c r="BQ44">
+        <v>98</v>
+      </c>
+      <c r="BR44">
+        <v>5934</v>
+      </c>
+      <c r="BS44">
+        <v>91313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D45">
         <v>525</v>
@@ -8721,18 +10489,57 @@
         <v>65889</v>
       </c>
       <c r="BF45">
-        <v>4103</v>
+        <v>3277</v>
+      </c>
+      <c r="BG45">
+        <v>409</v>
+      </c>
+      <c r="BH45">
+        <v>288</v>
+      </c>
+      <c r="BI45">
+        <v>144</v>
+      </c>
+      <c r="BJ45">
+        <v>697</v>
+      </c>
+      <c r="BK45">
+        <v>44.2</v>
+      </c>
+      <c r="BL45">
+        <v>45</v>
+      </c>
+      <c r="BM45">
+        <v>71</v>
+      </c>
+      <c r="BN45">
+        <v>182</v>
+      </c>
+      <c r="BO45">
+        <v>194</v>
+      </c>
+      <c r="BP45">
+        <v>192</v>
+      </c>
+      <c r="BQ45">
+        <v>58</v>
+      </c>
+      <c r="BR45">
+        <v>3480</v>
+      </c>
+      <c r="BS45">
+        <v>65889</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D46">
         <v>1030</v>
@@ -8897,18 +10704,57 @@
         <v>97490</v>
       </c>
       <c r="BF46">
-        <v>8972</v>
+        <v>7430</v>
+      </c>
+      <c r="BG46">
+        <v>958</v>
+      </c>
+      <c r="BH46">
+        <v>751</v>
+      </c>
+      <c r="BI46">
+        <v>364</v>
+      </c>
+      <c r="BJ46">
+        <v>1709</v>
+      </c>
+      <c r="BK46">
+        <v>44.7</v>
+      </c>
+      <c r="BL46">
+        <v>44</v>
+      </c>
+      <c r="BM46">
+        <v>161</v>
+      </c>
+      <c r="BN46">
+        <v>499</v>
+      </c>
+      <c r="BO46">
+        <v>470</v>
+      </c>
+      <c r="BP46">
+        <v>446</v>
+      </c>
+      <c r="BQ46">
+        <v>133</v>
+      </c>
+      <c r="BR46">
+        <v>7376</v>
+      </c>
+      <c r="BS46">
+        <v>97490</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D47">
         <v>522</v>
@@ -9073,18 +10919,57 @@
         <v>87331</v>
       </c>
       <c r="BF47">
-        <v>5082</v>
+        <v>4324</v>
+      </c>
+      <c r="BG47">
+        <v>464</v>
+      </c>
+      <c r="BH47">
+        <v>379</v>
+      </c>
+      <c r="BI47">
+        <v>210</v>
+      </c>
+      <c r="BJ47">
+        <v>843</v>
+      </c>
+      <c r="BK47">
+        <v>43.51</v>
+      </c>
+      <c r="BL47">
+        <v>44</v>
+      </c>
+      <c r="BM47">
+        <v>79</v>
+      </c>
+      <c r="BN47">
+        <v>246</v>
+      </c>
+      <c r="BO47">
+        <v>235</v>
+      </c>
+      <c r="BP47">
+        <v>202</v>
+      </c>
+      <c r="BQ47">
+        <v>81</v>
+      </c>
+      <c r="BR47">
+        <v>4276</v>
+      </c>
+      <c r="BS47">
+        <v>87331</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D48">
         <v>923</v>
@@ -9249,18 +11134,57 @@
         <v>143995</v>
       </c>
       <c r="BF48">
-        <v>10647</v>
+        <v>9292</v>
+      </c>
+      <c r="BG48">
+        <v>881</v>
+      </c>
+      <c r="BH48">
+        <v>707</v>
+      </c>
+      <c r="BI48">
+        <v>317</v>
+      </c>
+      <c r="BJ48">
+        <v>1591</v>
+      </c>
+      <c r="BK48">
+        <v>44.3</v>
+      </c>
+      <c r="BL48">
+        <v>45</v>
+      </c>
+      <c r="BM48">
+        <v>118</v>
+      </c>
+      <c r="BN48">
+        <v>412</v>
+      </c>
+      <c r="BO48">
+        <v>477</v>
+      </c>
+      <c r="BP48">
+        <v>454</v>
+      </c>
+      <c r="BQ48">
+        <v>127</v>
+      </c>
+      <c r="BR48">
+        <v>9617</v>
+      </c>
+      <c r="BS48">
+        <v>143995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D49">
         <v>712</v>
@@ -9425,18 +11349,57 @@
         <v>86547</v>
       </c>
       <c r="BF49">
-        <v>5583</v>
+        <v>4699</v>
+      </c>
+      <c r="BG49">
+        <v>616</v>
+      </c>
+      <c r="BH49">
+        <v>475</v>
+      </c>
+      <c r="BI49">
+        <v>251</v>
+      </c>
+      <c r="BJ49">
+        <v>1091</v>
+      </c>
+      <c r="BK49">
+        <v>44.39</v>
+      </c>
+      <c r="BL49">
+        <v>44</v>
+      </c>
+      <c r="BM49">
+        <v>123</v>
+      </c>
+      <c r="BN49">
+        <v>294</v>
+      </c>
+      <c r="BO49">
+        <v>303</v>
+      </c>
+      <c r="BP49">
+        <v>283</v>
+      </c>
+      <c r="BQ49">
+        <v>88</v>
+      </c>
+      <c r="BR49">
+        <v>4851</v>
+      </c>
+      <c r="BS49">
+        <v>86547</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D50">
         <v>927</v>
@@ -9601,18 +11564,57 @@
         <v>113760</v>
       </c>
       <c r="BF50">
-        <v>7388</v>
+        <v>6117</v>
+      </c>
+      <c r="BG50">
+        <v>833</v>
+      </c>
+      <c r="BH50">
+        <v>673</v>
+      </c>
+      <c r="BI50">
+        <v>344</v>
+      </c>
+      <c r="BJ50">
+        <v>1512</v>
+      </c>
+      <c r="BK50">
+        <v>43.99</v>
+      </c>
+      <c r="BL50">
+        <v>45</v>
+      </c>
+      <c r="BM50">
+        <v>138</v>
+      </c>
+      <c r="BN50">
+        <v>411</v>
+      </c>
+      <c r="BO50">
+        <v>400</v>
+      </c>
+      <c r="BP50">
+        <v>426</v>
+      </c>
+      <c r="BQ50">
+        <v>131</v>
+      </c>
+      <c r="BR50">
+        <v>6031</v>
+      </c>
+      <c r="BS50">
+        <v>113760</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D51">
         <v>447</v>
@@ -9777,18 +11779,57 @@
         <v>78830</v>
       </c>
       <c r="BF51">
-        <v>3978</v>
+        <v>3278</v>
+      </c>
+      <c r="BG51">
+        <v>421</v>
+      </c>
+      <c r="BH51">
+        <v>320</v>
+      </c>
+      <c r="BI51">
+        <v>184</v>
+      </c>
+      <c r="BJ51">
+        <v>742</v>
+      </c>
+      <c r="BK51">
+        <v>44.94</v>
+      </c>
+      <c r="BL51">
+        <v>45</v>
+      </c>
+      <c r="BM51">
+        <v>69</v>
+      </c>
+      <c r="BN51">
+        <v>213</v>
+      </c>
+      <c r="BO51">
+        <v>196</v>
+      </c>
+      <c r="BP51">
+        <v>197</v>
+      </c>
+      <c r="BQ51">
+        <v>66</v>
+      </c>
+      <c r="BR51">
+        <v>3344</v>
+      </c>
+      <c r="BS51">
+        <v>78830</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D52">
         <v>474</v>
@@ -9953,18 +11994,57 @@
         <v>94004</v>
       </c>
       <c r="BF52">
-        <v>5666</v>
+        <v>5160</v>
+      </c>
+      <c r="BG52">
+        <v>507</v>
+      </c>
+      <c r="BH52">
+        <v>413</v>
+      </c>
+      <c r="BI52">
+        <v>189</v>
+      </c>
+      <c r="BJ52">
+        <v>921</v>
+      </c>
+      <c r="BK52">
+        <v>44.99</v>
+      </c>
+      <c r="BL52">
+        <v>45</v>
+      </c>
+      <c r="BM52">
+        <v>48</v>
+      </c>
+      <c r="BN52">
+        <v>267</v>
+      </c>
+      <c r="BO52">
+        <v>270</v>
+      </c>
+      <c r="BP52">
+        <v>253</v>
+      </c>
+      <c r="BQ52">
+        <v>82</v>
+      </c>
+      <c r="BR52">
+        <v>5173</v>
+      </c>
+      <c r="BS52">
+        <v>94004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D53">
         <v>366</v>
@@ -10129,18 +12209,57 @@
         <v>60951</v>
       </c>
       <c r="BF53">
-        <v>3074</v>
+        <v>2729</v>
+      </c>
+      <c r="BG53">
+        <v>304</v>
+      </c>
+      <c r="BH53">
+        <v>250</v>
+      </c>
+      <c r="BI53">
+        <v>144</v>
+      </c>
+      <c r="BJ53">
+        <v>555</v>
+      </c>
+      <c r="BK53">
+        <v>44.94</v>
+      </c>
+      <c r="BL53">
+        <v>45</v>
+      </c>
+      <c r="BM53">
+        <v>62</v>
+      </c>
+      <c r="BN53">
+        <v>155</v>
+      </c>
+      <c r="BO53">
+        <v>133</v>
+      </c>
+      <c r="BP53">
+        <v>157</v>
+      </c>
+      <c r="BQ53">
+        <v>47</v>
+      </c>
+      <c r="BR53">
+        <v>2669</v>
+      </c>
+      <c r="BS53">
+        <v>60951</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D54">
         <v>439</v>
@@ -10305,18 +12424,57 @@
         <v>92570</v>
       </c>
       <c r="BF54">
-        <v>4673</v>
+        <v>4205</v>
+      </c>
+      <c r="BG54">
+        <v>469</v>
+      </c>
+      <c r="BH54">
+        <v>333</v>
+      </c>
+      <c r="BI54">
+        <v>206</v>
+      </c>
+      <c r="BJ54">
+        <v>804</v>
+      </c>
+      <c r="BK54">
+        <v>45.26</v>
+      </c>
+      <c r="BL54">
+        <v>45</v>
+      </c>
+      <c r="BM54">
+        <v>57</v>
+      </c>
+      <c r="BN54">
+        <v>206</v>
+      </c>
+      <c r="BO54">
+        <v>231</v>
+      </c>
+      <c r="BP54">
+        <v>232</v>
+      </c>
+      <c r="BQ54">
+        <v>76</v>
+      </c>
+      <c r="BR54">
+        <v>4205</v>
+      </c>
+      <c r="BS54">
+        <v>92570</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D55">
         <v>404</v>
@@ -10481,18 +12639,57 @@
         <v>98106</v>
       </c>
       <c r="BF55">
-        <v>4533</v>
+        <v>3420</v>
+      </c>
+      <c r="BG55">
+        <v>405</v>
+      </c>
+      <c r="BH55">
+        <v>347</v>
+      </c>
+      <c r="BI55">
+        <v>189</v>
+      </c>
+      <c r="BJ55">
+        <v>752</v>
+      </c>
+      <c r="BK55">
+        <v>44.71</v>
+      </c>
+      <c r="BL55">
+        <v>45</v>
+      </c>
+      <c r="BM55">
+        <v>64</v>
+      </c>
+      <c r="BN55">
+        <v>196</v>
+      </c>
+      <c r="BO55">
+        <v>223</v>
+      </c>
+      <c r="BP55">
+        <v>206</v>
+      </c>
+      <c r="BQ55">
+        <v>63</v>
+      </c>
+      <c r="BR55">
+        <v>3446</v>
+      </c>
+      <c r="BS55">
+        <v>98106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D56">
         <v>463</v>
@@ -10657,18 +12854,57 @@
         <v>89822</v>
       </c>
       <c r="BF56">
-        <v>4397</v>
+        <v>3803</v>
+      </c>
+      <c r="BG56">
+        <v>487</v>
+      </c>
+      <c r="BH56">
+        <v>324</v>
+      </c>
+      <c r="BI56">
+        <v>165</v>
+      </c>
+      <c r="BJ56">
+        <v>811</v>
+      </c>
+      <c r="BK56">
+        <v>44.86</v>
+      </c>
+      <c r="BL56">
+        <v>46</v>
+      </c>
+      <c r="BM56">
+        <v>57</v>
+      </c>
+      <c r="BN56">
+        <v>200</v>
+      </c>
+      <c r="BO56">
+        <v>238</v>
+      </c>
+      <c r="BP56">
+        <v>239</v>
+      </c>
+      <c r="BQ56">
+        <v>77</v>
+      </c>
+      <c r="BR56">
+        <v>3766</v>
+      </c>
+      <c r="BS56">
+        <v>89822</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D57">
         <v>1328</v>
@@ -10833,18 +13069,57 @@
         <v>319229</v>
       </c>
       <c r="BF57">
-        <v>27701</v>
+        <v>24968</v>
+      </c>
+      <c r="BG57">
+        <v>2027</v>
+      </c>
+      <c r="BH57">
+        <v>1612</v>
+      </c>
+      <c r="BI57">
+        <v>698</v>
+      </c>
+      <c r="BJ57">
+        <v>3647</v>
+      </c>
+      <c r="BK57">
+        <v>44.89</v>
+      </c>
+      <c r="BL57">
+        <v>47</v>
+      </c>
+      <c r="BM57">
+        <v>176</v>
+      </c>
+      <c r="BN57">
+        <v>822</v>
+      </c>
+      <c r="BO57">
+        <v>1026</v>
+      </c>
+      <c r="BP57">
+        <v>1216</v>
+      </c>
+      <c r="BQ57">
+        <v>399</v>
+      </c>
+      <c r="BR57">
+        <v>25173</v>
+      </c>
+      <c r="BS57">
+        <v>319229</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>741</v>
@@ -11009,18 +13284,57 @@
         <v>183814</v>
       </c>
       <c r="BF58">
-        <v>8327</v>
+        <v>6992</v>
+      </c>
+      <c r="BG58">
+        <v>876</v>
+      </c>
+      <c r="BH58">
+        <v>717</v>
+      </c>
+      <c r="BI58">
+        <v>380</v>
+      </c>
+      <c r="BJ58">
+        <v>1595</v>
+      </c>
+      <c r="BK58">
+        <v>44.37</v>
+      </c>
+      <c r="BL58">
+        <v>45</v>
+      </c>
+      <c r="BM58">
+        <v>103</v>
+      </c>
+      <c r="BN58">
+        <v>447</v>
+      </c>
+      <c r="BO58">
+        <v>473</v>
+      </c>
+      <c r="BP58">
+        <v>433</v>
+      </c>
+      <c r="BQ58">
+        <v>138</v>
+      </c>
+      <c r="BR58">
+        <v>7194</v>
+      </c>
+      <c r="BS58">
+        <v>183814</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D59">
         <v>614</v>
@@ -11185,18 +13499,57 @@
         <v>96915</v>
       </c>
       <c r="BF59">
-        <v>6478</v>
+        <v>5606</v>
+      </c>
+      <c r="BG59">
+        <v>596</v>
+      </c>
+      <c r="BH59">
+        <v>474</v>
+      </c>
+      <c r="BI59">
+        <v>247</v>
+      </c>
+      <c r="BJ59">
+        <v>1070</v>
+      </c>
+      <c r="BK59">
+        <v>45.48</v>
+      </c>
+      <c r="BL59">
+        <v>46</v>
+      </c>
+      <c r="BM59">
+        <v>80</v>
+      </c>
+      <c r="BN59">
+        <v>229</v>
+      </c>
+      <c r="BO59">
+        <v>344</v>
+      </c>
+      <c r="BP59">
+        <v>314</v>
+      </c>
+      <c r="BQ59">
+        <v>103</v>
+      </c>
+      <c r="BR59">
+        <v>6128</v>
+      </c>
+      <c r="BS59">
+        <v>96915</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D60">
         <v>748</v>
@@ -11361,18 +13714,57 @@
         <v>129121</v>
       </c>
       <c r="BF60">
-        <v>7924</v>
+        <v>6901</v>
+      </c>
+      <c r="BG60">
+        <v>801</v>
+      </c>
+      <c r="BH60">
+        <v>611</v>
+      </c>
+      <c r="BI60">
+        <v>331</v>
+      </c>
+      <c r="BJ60">
+        <v>1415</v>
+      </c>
+      <c r="BK60">
+        <v>45.92</v>
+      </c>
+      <c r="BL60">
+        <v>46</v>
+      </c>
+      <c r="BM60">
+        <v>83</v>
+      </c>
+      <c r="BN60">
+        <v>342</v>
+      </c>
+      <c r="BO60">
+        <v>411</v>
+      </c>
+      <c r="BP60">
+        <v>439</v>
+      </c>
+      <c r="BQ60">
+        <v>137</v>
+      </c>
+      <c r="BR60">
+        <v>6812</v>
+      </c>
+      <c r="BS60">
+        <v>129121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>355</v>
@@ -11537,18 +13929,57 @@
         <v>76380</v>
       </c>
       <c r="BF61">
-        <v>4397</v>
+        <v>3812</v>
+      </c>
+      <c r="BG61">
+        <v>465</v>
+      </c>
+      <c r="BH61">
+        <v>347</v>
+      </c>
+      <c r="BI61">
+        <v>202</v>
+      </c>
+      <c r="BJ61">
+        <v>813</v>
+      </c>
+      <c r="BK61">
+        <v>45.61</v>
+      </c>
+      <c r="BL61">
+        <v>46</v>
+      </c>
+      <c r="BM61">
+        <v>46</v>
+      </c>
+      <c r="BN61">
+        <v>208</v>
+      </c>
+      <c r="BO61">
+        <v>252</v>
+      </c>
+      <c r="BP61">
+        <v>233</v>
+      </c>
+      <c r="BQ61">
+        <v>73</v>
+      </c>
+      <c r="BR61">
+        <v>3828</v>
+      </c>
+      <c r="BS61">
+        <v>76380</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D62">
         <v>642</v>
@@ -11713,18 +14144,57 @@
         <v>95217</v>
       </c>
       <c r="BF62">
-        <v>7471</v>
+        <v>6661</v>
+      </c>
+      <c r="BG62">
+        <v>649</v>
+      </c>
+      <c r="BH62">
+        <v>554</v>
+      </c>
+      <c r="BI62">
+        <v>342</v>
+      </c>
+      <c r="BJ62">
+        <v>1204</v>
+      </c>
+      <c r="BK62">
+        <v>45.18</v>
+      </c>
+      <c r="BL62">
+        <v>46</v>
+      </c>
+      <c r="BM62">
+        <v>102</v>
+      </c>
+      <c r="BN62">
+        <v>277</v>
+      </c>
+      <c r="BO62">
+        <v>362</v>
+      </c>
+      <c r="BP62">
+        <v>334</v>
+      </c>
+      <c r="BQ62">
+        <v>128</v>
+      </c>
+      <c r="BR62">
+        <v>6707</v>
+      </c>
+      <c r="BS62">
+        <v>95217</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D63">
         <v>222</v>
@@ -11889,18 +14359,57 @@
         <v>31572</v>
       </c>
       <c r="BF63">
-        <v>3911</v>
+        <v>3293</v>
+      </c>
+      <c r="BG63">
+        <v>301</v>
+      </c>
+      <c r="BH63">
+        <v>237</v>
+      </c>
+      <c r="BI63">
+        <v>137</v>
+      </c>
+      <c r="BJ63">
+        <v>539</v>
+      </c>
+      <c r="BK63">
+        <v>45.49</v>
+      </c>
+      <c r="BL63">
+        <v>48</v>
+      </c>
+      <c r="BM63">
+        <v>22</v>
+      </c>
+      <c r="BN63">
+        <v>129</v>
+      </c>
+      <c r="BO63">
+        <v>149</v>
+      </c>
+      <c r="BP63">
+        <v>172</v>
+      </c>
+      <c r="BQ63">
+        <v>66</v>
+      </c>
+      <c r="BR63">
+        <v>3065</v>
+      </c>
+      <c r="BS63">
+        <v>31572</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D64">
         <v>1072</v>
@@ -12065,18 +14574,57 @@
         <v>194918</v>
       </c>
       <c r="BF64">
-        <v>14446</v>
+        <v>12490</v>
+      </c>
+      <c r="BG64">
+        <v>1236</v>
+      </c>
+      <c r="BH64">
+        <v>971</v>
+      </c>
+      <c r="BI64">
+        <v>470</v>
+      </c>
+      <c r="BJ64">
+        <v>2208</v>
+      </c>
+      <c r="BK64">
+        <v>44.63</v>
+      </c>
+      <c r="BL64">
+        <v>45</v>
+      </c>
+      <c r="BM64">
+        <v>167</v>
+      </c>
+      <c r="BN64">
+        <v>596</v>
+      </c>
+      <c r="BO64">
+        <v>618</v>
+      </c>
+      <c r="BP64">
+        <v>615</v>
+      </c>
+      <c r="BQ64">
+        <v>211</v>
+      </c>
+      <c r="BR64">
+        <v>12431</v>
+      </c>
+      <c r="BS64">
+        <v>194918</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D65">
         <v>626</v>
@@ -12241,18 +14789,57 @@
         <v>90506</v>
       </c>
       <c r="BF65">
-        <v>6665</v>
+        <v>5800</v>
+      </c>
+      <c r="BG65">
+        <v>610</v>
+      </c>
+      <c r="BH65">
+        <v>504</v>
+      </c>
+      <c r="BI65">
+        <v>271</v>
+      </c>
+      <c r="BJ65">
+        <v>1117</v>
+      </c>
+      <c r="BK65">
+        <v>45.28</v>
+      </c>
+      <c r="BL65">
+        <v>45</v>
+      </c>
+      <c r="BM65">
+        <v>90</v>
+      </c>
+      <c r="BN65">
+        <v>283</v>
+      </c>
+      <c r="BO65">
+        <v>303</v>
+      </c>
+      <c r="BP65">
+        <v>334</v>
+      </c>
+      <c r="BQ65">
+        <v>104</v>
+      </c>
+      <c r="BR65">
+        <v>5734</v>
+      </c>
+      <c r="BS65">
+        <v>90506</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D66">
         <v>670</v>
@@ -12417,18 +15004,57 @@
         <v>107651</v>
       </c>
       <c r="BF66">
-        <v>8234</v>
+        <v>7231</v>
+      </c>
+      <c r="BG66">
+        <v>640</v>
+      </c>
+      <c r="BH66">
+        <v>542</v>
+      </c>
+      <c r="BI66">
+        <v>271</v>
+      </c>
+      <c r="BJ66">
+        <v>1185</v>
+      </c>
+      <c r="BK66">
+        <v>45.05</v>
+      </c>
+      <c r="BL66">
+        <v>46</v>
+      </c>
+      <c r="BM66">
+        <v>82</v>
+      </c>
+      <c r="BN66">
+        <v>302</v>
+      </c>
+      <c r="BO66">
+        <v>334</v>
+      </c>
+      <c r="BP66">
+        <v>365</v>
+      </c>
+      <c r="BQ66">
+        <v>99</v>
+      </c>
+      <c r="BR66">
+        <v>7098</v>
+      </c>
+      <c r="BS66">
+        <v>107651</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D67">
         <v>745</v>
@@ -12593,18 +15219,57 @@
         <v>100056</v>
       </c>
       <c r="BF67">
-        <v>7542</v>
+        <v>6342</v>
+      </c>
+      <c r="BG67">
+        <v>700</v>
+      </c>
+      <c r="BH67">
+        <v>535</v>
+      </c>
+      <c r="BI67">
+        <v>273</v>
+      </c>
+      <c r="BJ67">
+        <v>1236</v>
+      </c>
+      <c r="BK67">
+        <v>44.59</v>
+      </c>
+      <c r="BL67">
+        <v>46</v>
+      </c>
+      <c r="BM67">
+        <v>103</v>
+      </c>
+      <c r="BN67">
+        <v>299</v>
+      </c>
+      <c r="BO67">
+        <v>355</v>
+      </c>
+      <c r="BP67">
+        <v>367</v>
+      </c>
+      <c r="BQ67">
+        <v>111</v>
+      </c>
+      <c r="BR67">
+        <v>6395</v>
+      </c>
+      <c r="BS67">
+        <v>100056</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D68">
         <v>530</v>
@@ -12769,18 +15434,57 @@
         <v>87667</v>
       </c>
       <c r="BF68">
-        <v>6114</v>
+        <v>5242</v>
+      </c>
+      <c r="BG68">
+        <v>579</v>
+      </c>
+      <c r="BH68">
+        <v>461</v>
+      </c>
+      <c r="BI68">
+        <v>209</v>
+      </c>
+      <c r="BJ68">
+        <v>1042</v>
+      </c>
+      <c r="BK68">
+        <v>45.87</v>
+      </c>
+      <c r="BL68">
+        <v>47</v>
+      </c>
+      <c r="BM68">
+        <v>52</v>
+      </c>
+      <c r="BN68">
+        <v>263</v>
+      </c>
+      <c r="BO68">
+        <v>290</v>
+      </c>
+      <c r="BP68">
+        <v>314</v>
+      </c>
+      <c r="BQ68">
+        <v>121</v>
+      </c>
+      <c r="BR68">
+        <v>5150</v>
+      </c>
+      <c r="BS68">
+        <v>87667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D69">
         <v>529</v>
@@ -12945,18 +15649,57 @@
         <v>118629</v>
       </c>
       <c r="BF69">
-        <v>6008</v>
+        <v>5115</v>
+      </c>
+      <c r="BG69">
+        <v>534</v>
+      </c>
+      <c r="BH69">
+        <v>450</v>
+      </c>
+      <c r="BI69">
+        <v>199</v>
+      </c>
+      <c r="BJ69">
+        <v>986</v>
+      </c>
+      <c r="BK69">
+        <v>46.08</v>
+      </c>
+      <c r="BL69">
+        <v>47</v>
+      </c>
+      <c r="BM69">
+        <v>61</v>
+      </c>
+      <c r="BN69">
+        <v>222</v>
+      </c>
+      <c r="BO69">
+        <v>281</v>
+      </c>
+      <c r="BP69">
+        <v>328</v>
+      </c>
+      <c r="BQ69">
+        <v>92</v>
+      </c>
+      <c r="BR69">
+        <v>4677</v>
+      </c>
+      <c r="BS69">
+        <v>118629</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D70">
         <v>534</v>
@@ -13121,18 +15864,57 @@
         <v>118964</v>
       </c>
       <c r="BF70">
-        <v>6048</v>
+        <v>5295</v>
+      </c>
+      <c r="BG70">
+        <v>585</v>
+      </c>
+      <c r="BH70">
+        <v>402</v>
+      </c>
+      <c r="BI70">
+        <v>188</v>
+      </c>
+      <c r="BJ70">
+        <v>990</v>
+      </c>
+      <c r="BK70">
+        <v>44.86</v>
+      </c>
+      <c r="BL70">
+        <v>47</v>
+      </c>
+      <c r="BM70">
+        <v>61</v>
+      </c>
+      <c r="BN70">
+        <v>252</v>
+      </c>
+      <c r="BO70">
+        <v>272</v>
+      </c>
+      <c r="BP70">
+        <v>298</v>
+      </c>
+      <c r="BQ70">
+        <v>103</v>
+      </c>
+      <c r="BR70">
+        <v>5219</v>
+      </c>
+      <c r="BS70">
+        <v>118280</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D71">
         <v>722</v>
@@ -13297,18 +16079,57 @@
         <v>159333</v>
       </c>
       <c r="BF71">
-        <v>8184</v>
+        <v>7031</v>
+      </c>
+      <c r="BG71">
+        <v>792</v>
+      </c>
+      <c r="BH71">
+        <v>606</v>
+      </c>
+      <c r="BI71">
+        <v>234</v>
+      </c>
+      <c r="BJ71">
+        <v>1399</v>
+      </c>
+      <c r="BK71">
+        <v>44.89</v>
+      </c>
+      <c r="BL71">
+        <v>47</v>
+      </c>
+      <c r="BM71">
+        <v>69</v>
+      </c>
+      <c r="BN71">
+        <v>309</v>
+      </c>
+      <c r="BO71">
+        <v>425</v>
+      </c>
+      <c r="BP71">
+        <v>450</v>
+      </c>
+      <c r="BQ71">
+        <v>145</v>
+      </c>
+      <c r="BR71">
+        <v>6967</v>
+      </c>
+      <c r="BS71">
+        <v>160017</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D72">
         <v>997</v>
@@ -13473,18 +16294,57 @@
         <v>76610</v>
       </c>
       <c r="BF72">
-        <v>10925</v>
+        <v>9091</v>
+      </c>
+      <c r="BG72">
+        <v>932</v>
+      </c>
+      <c r="BH72">
+        <v>724</v>
+      </c>
+      <c r="BI72">
+        <v>319</v>
+      </c>
+      <c r="BJ72">
+        <v>1656</v>
+      </c>
+      <c r="BK72">
+        <v>45.52</v>
+      </c>
+      <c r="BL72">
+        <v>47</v>
+      </c>
+      <c r="BM72">
+        <v>120</v>
+      </c>
+      <c r="BN72">
+        <v>412</v>
+      </c>
+      <c r="BO72">
+        <v>444</v>
+      </c>
+      <c r="BP72">
+        <v>485</v>
+      </c>
+      <c r="BQ72">
+        <v>195</v>
+      </c>
+      <c r="BR72">
+        <v>8670</v>
+      </c>
+      <c r="BS72">
+        <v>76610</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D73">
         <v>1065</v>
@@ -13649,18 +16509,57 @@
         <v>178053</v>
       </c>
       <c r="BF73">
-        <v>11121</v>
+        <v>9697</v>
+      </c>
+      <c r="BG73">
+        <v>1166</v>
+      </c>
+      <c r="BH73">
+        <v>867</v>
+      </c>
+      <c r="BI73">
+        <v>443</v>
+      </c>
+      <c r="BJ73">
+        <v>2034</v>
+      </c>
+      <c r="BK73">
+        <v>43.94</v>
+      </c>
+      <c r="BL73">
+        <v>45</v>
+      </c>
+      <c r="BM73">
+        <v>142</v>
+      </c>
+      <c r="BN73">
+        <v>576</v>
+      </c>
+      <c r="BO73">
+        <v>547</v>
+      </c>
+      <c r="BP73">
+        <v>596</v>
+      </c>
+      <c r="BQ73">
+        <v>172</v>
+      </c>
+      <c r="BR73">
+        <v>9865</v>
+      </c>
+      <c r="BS73">
+        <v>178053</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D74">
         <v>2533</v>
@@ -13825,18 +16724,57 @@
         <v>205613</v>
       </c>
       <c r="BF74">
-        <v>27433</v>
+        <v>24470</v>
+      </c>
+      <c r="BG74">
+        <v>2474</v>
+      </c>
+      <c r="BH74">
+        <v>2017</v>
+      </c>
+      <c r="BI74">
+        <v>1070</v>
+      </c>
+      <c r="BJ74">
+        <v>4491</v>
+      </c>
+      <c r="BK74">
+        <v>44.71</v>
+      </c>
+      <c r="BL74">
+        <v>44</v>
+      </c>
+      <c r="BM74">
+        <v>410</v>
+      </c>
+      <c r="BN74">
+        <v>1310</v>
+      </c>
+      <c r="BO74">
+        <v>1162</v>
+      </c>
+      <c r="BP74">
+        <v>1228</v>
+      </c>
+      <c r="BQ74">
+        <v>381</v>
+      </c>
+      <c r="BR74">
+        <v>23863</v>
+      </c>
+      <c r="BS74">
+        <v>205613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D75">
         <v>858</v>
@@ -14001,18 +16939,57 @@
         <v>125617</v>
       </c>
       <c r="BF75">
-        <v>9396</v>
+        <v>8128</v>
+      </c>
+      <c r="BG75">
+        <v>845</v>
+      </c>
+      <c r="BH75">
+        <v>683</v>
+      </c>
+      <c r="BI75">
+        <v>320</v>
+      </c>
+      <c r="BJ75">
+        <v>1528</v>
+      </c>
+      <c r="BK75">
+        <v>44.12</v>
+      </c>
+      <c r="BL75">
+        <v>46</v>
+      </c>
+      <c r="BM75">
+        <v>136</v>
+      </c>
+      <c r="BN75">
+        <v>394</v>
+      </c>
+      <c r="BO75">
+        <v>396</v>
+      </c>
+      <c r="BP75">
+        <v>444</v>
+      </c>
+      <c r="BQ75">
+        <v>158</v>
+      </c>
+      <c r="BR75">
+        <v>8371</v>
+      </c>
+      <c r="BS75">
+        <v>125617</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D76">
         <v>928</v>
@@ -14177,18 +17154,57 @@
         <v>146021</v>
       </c>
       <c r="BF76">
-        <v>8859</v>
+        <v>7623</v>
+      </c>
+      <c r="BG76">
+        <v>888</v>
+      </c>
+      <c r="BH76">
+        <v>707</v>
+      </c>
+      <c r="BI76">
+        <v>345</v>
+      </c>
+      <c r="BJ76">
+        <v>1595</v>
+      </c>
+      <c r="BK76">
+        <v>44.74</v>
+      </c>
+      <c r="BL76">
+        <v>46</v>
+      </c>
+      <c r="BM76">
+        <v>134</v>
+      </c>
+      <c r="BN76">
+        <v>418</v>
+      </c>
+      <c r="BO76">
+        <v>407</v>
+      </c>
+      <c r="BP76">
+        <v>457</v>
+      </c>
+      <c r="BQ76">
+        <v>179</v>
+      </c>
+      <c r="BR76">
+        <v>7596</v>
+      </c>
+      <c r="BS76">
+        <v>146021</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D77">
         <v>2073</v>
@@ -14353,18 +17369,57 @@
         <v>265457</v>
       </c>
       <c r="BF77">
-        <v>35596</v>
+        <v>32875</v>
+      </c>
+      <c r="BG77">
+        <v>2562</v>
+      </c>
+      <c r="BH77">
+        <v>2167</v>
+      </c>
+      <c r="BI77">
+        <v>954</v>
+      </c>
+      <c r="BJ77">
+        <v>4731</v>
+      </c>
+      <c r="BK77">
+        <v>44.89</v>
+      </c>
+      <c r="BL77">
+        <v>45</v>
+      </c>
+      <c r="BM77">
+        <v>387</v>
+      </c>
+      <c r="BN77">
+        <v>1246</v>
+      </c>
+      <c r="BO77">
+        <v>1328</v>
+      </c>
+      <c r="BP77">
+        <v>1334</v>
+      </c>
+      <c r="BQ77">
+        <v>434</v>
+      </c>
+      <c r="BR77">
+        <v>31723</v>
+      </c>
+      <c r="BS77">
+        <v>265457</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D78">
         <v>3226</v>
@@ -14529,7 +17584,46 @@
         <v>1071934</v>
       </c>
       <c r="BF78">
-        <v>82443</v>
+        <v>71738</v>
+      </c>
+      <c r="BG78">
+        <v>5217</v>
+      </c>
+      <c r="BH78">
+        <v>3792</v>
+      </c>
+      <c r="BI78">
+        <v>2633</v>
+      </c>
+      <c r="BJ78">
+        <v>9132</v>
+      </c>
+      <c r="BK78">
+        <v>45.26</v>
+      </c>
+      <c r="BL78">
+        <v>47</v>
+      </c>
+      <c r="BM78">
+        <v>447</v>
+      </c>
+      <c r="BN78">
+        <v>2091</v>
+      </c>
+      <c r="BO78">
+        <v>2767</v>
+      </c>
+      <c r="BP78">
+        <v>2827</v>
+      </c>
+      <c r="BQ78">
+        <v>877</v>
+      </c>
+      <c r="BR78">
+        <v>74205</v>
+      </c>
+      <c r="BS78">
+        <v>1071934</v>
       </c>
     </row>
   </sheetData>
